--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>プロジェクト</t>
     <phoneticPr fontId="1"/>
@@ -88,6 +88,59 @@
   </si>
   <si>
     <t>Game7</t>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>direction</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>方向を決める</t>
+    <rPh sb="0" eb="2">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初速から徐々に減速させる</t>
+    <rPh sb="0" eb="2">
+      <t>ショソク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たったら</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cnt</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -413,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -431,9 +484,7 @@
       <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1">
-        <v>44830</v>
-      </c>
+      <c r="G1" s="1"/>
       <c r="H1" s="1">
         <v>44831</v>
       </c>
@@ -523,64 +574,116 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>7</v>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>8</v>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>10</v>
+      <c r="D7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>12</v>
+      <c r="D8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
     </row>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
-  <si>
-    <t>プロジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -32,80 +28,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>何が</t>
-    <rPh sb="0" eb="1">
-      <t>ナニ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Player</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Enemy</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gameclear</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gameover</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tutorial</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Game7</t>
-  </si>
-  <si>
-    <t>hp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>atk</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>speed</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>direction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>方向を決める</t>
     <rPh sb="0" eb="2">
       <t>ホウコウ</t>
@@ -139,7 +61,192 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cnt</t>
+    <t>BGM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/10/9までに完成</t>
+    <rPh sb="12" eb="14">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2022/10/20までに完成</t>
+    <rPh sb="13" eb="15">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮完成</t>
+    <rPh sb="0" eb="3">
+      <t>カリカンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ(予定)</t>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ(予定)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ(予定)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>友情コンボ(予定)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カウント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>題名</t>
+    <rPh sb="0" eb="2">
+      <t>ダイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央に「ゲームオーバー」と表示</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面中央に「ゲームクリア」と表示</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンチュウオウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マップの表示</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チュートリアル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作説明</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサセツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面切り替え</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の配置</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ギミック(予定)</t>
+    <rPh sb="5" eb="7">
+      <t>ヨテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -147,7 +254,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +269,40 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -183,9 +317,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="56" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -466,23 +613,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI19"/>
+  <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1">
@@ -570,124 +714,248 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="6"/>
       <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="U3" s="8"/>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" s="8"/>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="8"/>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U6" s="8"/>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="8"/>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="8"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
+      <c r="F9" s="7"/>
+      <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>8</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="8"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>10</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="U12" s="8"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="8"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="U17" s="8"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="U18" s="8"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="8"/>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="U20" s="8"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="U2:U21"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -246,6 +246,13 @@
     <t>ギミック(予定)</t>
     <rPh sb="5" eb="7">
       <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -325,10 +332,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
@@ -616,7 +623,7 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -715,10 +722,10 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="7"/>
       <c r="C2" t="s">
         <v>19</v>
       </c>
@@ -727,62 +734,68 @@
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
       <c r="U3" s="8"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
       <c r="U4" s="8"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
       <c r="U5" s="8"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
       <c r="U6" s="8"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="U7" s="8"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="U8" s="8"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="6"/>
       <c r="U9" s="8"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
@@ -822,26 +835,26 @@
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="6"/>
+      <c r="B14" s="7"/>
       <c r="C14" t="s">
         <v>28</v>
       </c>
       <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="U15" s="8"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -252,6 +252,16 @@
   <si>
     <t>完成</t>
     <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮完成</t>
+    <rPh sb="0" eb="1">
+      <t>カリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
       <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -623,7 +633,7 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -804,6 +814,9 @@
       </c>
       <c r="C10" t="s">
         <v>24</v>
+      </c>
+      <c r="K10" t="s">
+        <v>35</v>
       </c>
       <c r="U10" s="8"/>
     </row>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -263,6 +263,54 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本</t>
+    <rPh sb="0" eb="2">
+      <t>モリモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三好・成島</t>
+    <rPh sb="0" eb="2">
+      <t>ミヨシ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナルシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>三好</t>
+    <rPh sb="0" eb="2">
+      <t>ミヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>成島</t>
+    <rPh sb="0" eb="2">
+      <t>ナルシマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森本・三好</t>
+    <rPh sb="0" eb="2">
+      <t>モリモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミヨシ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -334,7 +382,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -343,6 +391,9 @@
     <xf numFmtId="56" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -633,11 +684,12 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
+    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,7 +697,9 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="H1" s="1">
         <v>44831</v>
       </c>
@@ -732,81 +786,93 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="U3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="U3" s="9"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
+      <c r="G4" s="8"/>
       <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="8"/>
+      <c r="U4" s="9"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
+      <c r="G5" s="8"/>
       <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="8"/>
+      <c r="U5" s="9"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="U6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="U8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="U9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -815,10 +881,13 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="K10" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="8"/>
+      <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -827,7 +896,8 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="U11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -836,7 +906,10 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -845,51 +918,68 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="U13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U14" s="9"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="U14" s="8"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" s="8"/>
+      <c r="G15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="U16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="U16" s="9"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="U17" s="8"/>
+      <c r="G17" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="U18" s="8"/>
+      <c r="G18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="U18" s="9"/>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="U19" s="8"/>
+      <c r="G19" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U19" s="9"/>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
@@ -898,17 +988,26 @@
       <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="U20" s="8"/>
+      <c r="G20" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U20" s="9"/>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="8"/>
+      <c r="G21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U21" s="9"/>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>6</v>
@@ -930,6 +1029,7 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
+      <c r="G23" s="8"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -947,6 +1047,9 @@
     <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>8</v>
@@ -976,11 +1079,17 @@
       <c r="AE24" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G15:G16"/>
     <mergeCell ref="A7:B9"/>
     <mergeCell ref="A2:B6"/>
     <mergeCell ref="A14:B16"/>
     <mergeCell ref="U2:U21"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -1080,16 +1080,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="U2:U21"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="U2:U21"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1024,6 +1024,17 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -1043,6 +1054,17 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -1080,16 +1102,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A7:B9"/>
     <mergeCell ref="A2:B6"/>
     <mergeCell ref="A14:B16"/>
     <mergeCell ref="U2:U21"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -311,6 +311,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -683,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1028,12 +1035,16 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
+      <c r="Y22" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
+      <c r="AD22" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="AE22" s="2"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.45">
@@ -1058,7 +1069,9 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="Y23" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -1102,16 +1115,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="U2:U21"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="U2:U21"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -408,6 +408,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -691,7 +692,7 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y23" sqref="Y23"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1038,14 +1039,12 @@
       <c r="Y22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AD22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE22" s="2"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
@@ -1072,12 +1071,12 @@
       <c r="Y23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-      <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
@@ -1115,16 +1114,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A7:B9"/>
     <mergeCell ref="A2:B6"/>
     <mergeCell ref="A14:B16"/>
     <mergeCell ref="U2:U21"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -311,6 +311,13 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ミヨシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -402,13 +409,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -692,7 +699,7 @@
   <dimension ref="A1:AI24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="AE22" sqref="AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -794,93 +801,93 @@
       </c>
     </row>
     <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8"/>
+      <c r="B2" s="9"/>
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="U3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="U3" s="10"/>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="8"/>
+      <c r="G4" s="9"/>
       <c r="J4" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="9"/>
+      <c r="U4" s="10"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="8"/>
+      <c r="G5" s="9"/>
       <c r="J5" t="s">
         <v>34</v>
       </c>
-      <c r="U5" s="9"/>
+      <c r="U5" s="10"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="U6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="U6" s="10"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
+      <c r="B7" s="9"/>
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="U7" s="9"/>
+      <c r="U7" s="10"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="U8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="U8" s="10"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="8"/>
-      <c r="U9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="U9" s="10"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -889,13 +896,13 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="9" t="s">
         <v>40</v>
       </c>
       <c r="K10" t="s">
         <v>35</v>
       </c>
-      <c r="U10" s="9"/>
+      <c r="U10" s="10"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -904,8 +911,8 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="U11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="U11" s="10"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -914,10 +921,10 @@
       <c r="C12" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="9"/>
+      <c r="U12" s="10"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -926,70 +933,70 @@
       <c r="C13" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="U13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="U13" s="10"/>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="8"/>
+      <c r="B14" s="9"/>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="9"/>
+      <c r="U14" s="10"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="9"/>
+      <c r="U15" s="10"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="U16" s="9"/>
-    </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="G16" s="9"/>
+      <c r="U16" s="10"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="U17" s="10"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="U18" s="9"/>
-    </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="U18" s="10"/>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U19" s="9"/>
-    </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="U19" s="10"/>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -999,22 +1006,22 @@
       <c r="G20" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>41</v>
       </c>
-      <c r="U21" s="9"/>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="8" t="s">
+      <c r="G22" s="9" t="s">
         <v>39</v>
       </c>
       <c r="H22" s="3" t="s">
@@ -1039,18 +1046,18 @@
       <c r="Y22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="10"/>
-      <c r="AB22" s="10"/>
-      <c r="AC22" s="10"/>
-      <c r="AD22" s="10"/>
-      <c r="AE22" s="10"/>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="8"/>
+      <c r="G23" s="9"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1071,14 +1078,14 @@
       <c r="Y23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="10"/>
-      <c r="AB23" s="10"/>
-      <c r="AC23" s="10"/>
-      <c r="AD23" s="10"/>
-      <c r="AE23" s="10"/>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.45">
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1111,19 +1118,22 @@
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
+      <c r="AF24" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:B6"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="U2:U21"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="G7:G9"/>
     <mergeCell ref="G22:G23"/>
     <mergeCell ref="G10:G11"/>
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="A7:B9"/>
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="U2:U21"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/モンストスケジュール.xlsx
+++ b/モンストスケジュール.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="52">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -185,26 +185,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面中央に「ゲームオーバー」と表示</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンチュウオウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面中央に「ゲームクリア」と表示</t>
-    <rPh sb="0" eb="4">
-      <t>ガメンチュウオウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップの表示</t>
     <rPh sb="4" eb="6">
       <t>ヒョウジ</t>
@@ -325,6 +305,79 @@
     <t>完成</t>
     <rPh sb="0" eb="2">
       <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブロックのみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反射</t>
+    <rPh sb="0" eb="2">
+      <t>ハンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貫通</t>
+    <rPh sb="0" eb="2">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>反転</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームオーバー画面に切り替え</t>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームクリア画面に切り替え</t>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -696,111 +749,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI24"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AE22" sqref="AE22"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="11.09765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="22" max="36" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1">
         <v>44831</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>44832</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>44833</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>44834</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>44835</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>44836</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>44837</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>44838</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>44839</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>44840</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>44841</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>44842</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>44843</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>44844</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>44845</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>44846</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>44847</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>44848</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>44849</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>44850</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>44851</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>44852</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>44853</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>44854</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>44855</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>44856</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AI1" s="1">
         <v>44857</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AJ1" s="1">
         <v>44858</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -808,332 +863,431 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U2" s="10" t="s">
+      <c r="H2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="AE2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="U3" s="10"/>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="H3" s="9"/>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3" s="10"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U4" s="10"/>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="H4" s="9"/>
+      <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="10"/>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="H5" s="9"/>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+      <c r="V5" s="10"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="U6" s="10"/>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A7" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="V6" s="10"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U7" s="10"/>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="V7" s="10"/>
+      <c r="AE7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="U8" s="10"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="V8" s="10"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="V9" s="10"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="10"/>
+      <c r="Z10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="V11" s="10"/>
+      <c r="Z11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="U9" s="10"/>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="9"/>
+      <c r="V12" s="10"/>
+      <c r="Z12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="H13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="10"/>
+      <c r="Z13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="V14" s="10"/>
+      <c r="AE14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V15" s="10"/>
+      <c r="AE15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="9"/>
+      <c r="V16" s="10"/>
+      <c r="AE16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V17" s="10"/>
+      <c r="AE17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="V18" s="10"/>
+      <c r="AE18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="9"/>
+      <c r="V19" s="10"/>
+      <c r="AE19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V20" s="10"/>
+      <c r="AE20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="10"/>
+      <c r="AE21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V22" s="10"/>
+      <c r="AE22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V23" s="10"/>
+      <c r="AE23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="V24" s="10"/>
+      <c r="AE24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K10" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="U11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="U12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="U13" s="10"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="9" t="s">
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="U15" s="10"/>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="U16" s="10"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U17" s="10"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="U18" s="10"/>
-    </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U19" s="10"/>
-    </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="U20" s="10"/>
-    </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s">
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+      <c r="AE27" s="4"/>
+      <c r="AF27" s="4"/>
+      <c r="AG27" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="U21" s="10"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z22" s="8"/>
-      <c r="AA22" s="8"/>
-      <c r="AB22" s="8"/>
-      <c r="AC22" s="8"/>
-      <c r="AD22" s="8"/>
-      <c r="AE22" s="8"/>
-    </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-    </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A2:B6"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="U2:U21"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A7:B9"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A10:B12"/>
+    <mergeCell ref="A2:B9"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="V2:V24"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="H10:H12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
